--- a/风电超短期进度表及里程碑-20200308.xlsx
+++ b/风电超短期进度表及里程碑-20200308.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01项目成员" sheetId="2" r:id="rId1"/>
     <sheet name="02项目进度" sheetId="1" r:id="rId2"/>
+    <sheet name="打印" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
   <si>
     <t>一、项目基本情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1016,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1056,8 +1057,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1070,69 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,6 +1111,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1173,14 +1135,444 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1851,84 +2243,84 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -1988,26 +2380,20 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -2016,6 +2402,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,11 +2419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="CC10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="CK24" sqref="CK24"/>
+      <selection pane="bottomRight" activeCell="CF7" sqref="A7:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2063,36 +2455,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -2168,36 +2560,36 @@
       <c r="CW1" s="2"/>
     </row>
     <row r="2" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -2273,40 +2665,40 @@
       <c r="CW2" s="2"/>
     </row>
     <row r="3" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="15" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="29" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -2382,40 +2774,40 @@
       <c r="CW3" s="2"/>
     </row>
     <row r="4" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="15" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="29" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -2491,42 +2883,42 @@
       <c r="CW4" s="2"/>
     </row>
     <row r="5" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37" t="s">
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="38">
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45">
         <v>44260</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -2602,543 +2994,543 @@
       <c r="CW5" s="2"/>
     </row>
     <row r="6" spans="1:104" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="52"/>
-      <c r="BW6" s="52"/>
-      <c r="BX6" s="52"/>
-      <c r="BY6" s="52"/>
-      <c r="BZ6" s="52"/>
-      <c r="CA6" s="52"/>
-      <c r="CB6" s="52"/>
-      <c r="CC6" s="52"/>
-      <c r="CD6" s="52"/>
-      <c r="CE6" s="52"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="53"/>
-      <c r="CP6" s="53"/>
-      <c r="CQ6" s="53"/>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
-      <c r="CT6" s="53"/>
-      <c r="CU6" s="53"/>
-      <c r="CV6" s="53"/>
-      <c r="CW6" s="53"/>
-      <c r="CX6" s="53"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="53"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="39"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
+      <c r="BQ6" s="39"/>
+      <c r="BR6" s="39"/>
+      <c r="BS6" s="39"/>
+      <c r="BT6" s="39"/>
+      <c r="BU6" s="39"/>
+      <c r="BV6" s="39"/>
+      <c r="BW6" s="39"/>
+      <c r="BX6" s="39"/>
+      <c r="BY6" s="39"/>
+      <c r="BZ6" s="39"/>
+      <c r="CA6" s="39"/>
+      <c r="CB6" s="39"/>
+      <c r="CC6" s="39"/>
+      <c r="CD6" s="39"/>
+      <c r="CE6" s="39"/>
+      <c r="CF6" s="40"/>
+      <c r="CG6" s="40"/>
+      <c r="CH6" s="40"/>
+      <c r="CI6" s="40"/>
+      <c r="CJ6" s="40"/>
+      <c r="CK6" s="40"/>
+      <c r="CL6" s="40"/>
+      <c r="CM6" s="40"/>
+      <c r="CN6" s="40"/>
+      <c r="CO6" s="40"/>
+      <c r="CP6" s="40"/>
+      <c r="CQ6" s="40"/>
+      <c r="CR6" s="40"/>
+      <c r="CS6" s="40"/>
+      <c r="CT6" s="40"/>
+      <c r="CU6" s="40"/>
+      <c r="CV6" s="40"/>
+      <c r="CW6" s="40"/>
+      <c r="CX6" s="40"/>
+      <c r="CY6" s="40"/>
+      <c r="CZ6" s="40"/>
     </row>
     <row r="7" spans="1:104" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="50"/>
-      <c r="BI7" s="50"/>
-      <c r="BJ7" s="54" t="s">
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="54"/>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="54"/>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="54"/>
-      <c r="BU7" s="54"/>
-      <c r="BV7" s="54"/>
-      <c r="BW7" s="54"/>
-      <c r="BX7" s="54"/>
-      <c r="BY7" s="54"/>
-      <c r="BZ7" s="54"/>
-      <c r="CA7" s="54"/>
-      <c r="CB7" s="54"/>
-      <c r="CC7" s="54"/>
-      <c r="CD7" s="54"/>
-      <c r="CE7" s="54"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="34"/>
+      <c r="CD7" s="34"/>
+      <c r="CE7" s="34"/>
     </row>
     <row r="8" spans="1:104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="39" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="40" t="s">
+      <c r="U8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="40" t="s">
+      <c r="V8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="40" t="s">
+      <c r="X8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="40" t="s">
+      <c r="Z8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AA8" s="40" t="s">
+      <c r="AA8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AB8" s="40" t="s">
+      <c r="AB8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AC8" s="40" t="s">
+      <c r="AC8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" s="40" t="s">
+      <c r="AD8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" s="40" t="s">
+      <c r="AE8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AF8" s="40" t="s">
+      <c r="AF8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AG8" s="40" t="s">
+      <c r="AG8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AH8" s="40" t="s">
+      <c r="AH8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI8" s="40" t="s">
+      <c r="AI8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AJ8" s="40" t="s">
+      <c r="AJ8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AK8" s="40" t="s">
+      <c r="AK8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AL8" s="40" t="s">
+      <c r="AL8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AM8" s="40" t="s">
+      <c r="AM8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AN8" s="40" t="s">
+      <c r="AN8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AO8" s="40" t="s">
+      <c r="AO8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AP8" s="40" t="s">
+      <c r="AP8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AQ8" s="40" t="s">
+      <c r="AQ8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AR8" s="40" t="s">
+      <c r="AR8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AS8" s="40" t="s">
+      <c r="AS8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AT8" s="40" t="s">
+      <c r="AT8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AU8" s="40" t="s">
+      <c r="AU8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AV8" s="40" t="s">
+      <c r="AV8" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AW8" s="40" t="s">
+      <c r="AW8" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AX8" s="40" t="s">
+      <c r="AX8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AY8" s="40" t="s">
+      <c r="AY8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="AZ8" s="40" t="s">
+      <c r="AZ8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="BA8" s="40" t="s">
+      <c r="BA8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="BB8" s="40" t="s">
+      <c r="BB8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="BC8" s="40" t="s">
+      <c r="BC8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="BD8" s="40" t="s">
+      <c r="BD8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="BE8" s="40" t="s">
+      <c r="BE8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="BF8" s="40" t="s">
+      <c r="BF8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="BG8" s="40" t="s">
+      <c r="BG8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="BH8" s="40" t="s">
+      <c r="BH8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="BI8" s="40" t="s">
+      <c r="BI8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="BJ8" s="40" t="s">
+      <c r="BJ8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="BK8" s="40" t="s">
+      <c r="BK8" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="BL8" s="40" t="s">
+      <c r="BL8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="40" t="s">
+      <c r="BM8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="BN8" s="40" t="s">
+      <c r="BN8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="BO8" s="40" t="s">
+      <c r="BO8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="BP8" s="40" t="s">
+      <c r="BP8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="BQ8" s="40" t="s">
+      <c r="BQ8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="BR8" s="40" t="s">
+      <c r="BR8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="BS8" s="40" t="s">
+      <c r="BS8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="BT8" s="40" t="s">
+      <c r="BT8" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="BU8" s="40" t="s">
+      <c r="BU8" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="BV8" s="40" t="s">
+      <c r="BV8" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="BW8" s="40" t="s">
+      <c r="BW8" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="BX8" s="40" t="s">
+      <c r="BX8" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="BY8" s="40" t="s">
+      <c r="BY8" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="BZ8" s="40" t="s">
+      <c r="BZ8" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="CA8" s="40" t="s">
+      <c r="CA8" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="CB8" s="30" t="s">
+      <c r="CB8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="CC8" s="31" t="s">
+      <c r="CC8" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="31"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="35"/>
     </row>
     <row r="9" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40"/>
-      <c r="AY9" s="40"/>
-      <c r="AZ9" s="40"/>
-      <c r="BA9" s="40"/>
-      <c r="BB9" s="40"/>
-      <c r="BC9" s="40"/>
-      <c r="BD9" s="40"/>
-      <c r="BE9" s="40"/>
-      <c r="BF9" s="40"/>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="40"/>
-      <c r="BI9" s="40"/>
-      <c r="BJ9" s="40"/>
-      <c r="BK9" s="40"/>
-      <c r="BL9" s="40"/>
-      <c r="BM9" s="40"/>
-      <c r="BN9" s="40"/>
-      <c r="BO9" s="40"/>
-      <c r="BP9" s="40"/>
-      <c r="BQ9" s="40"/>
-      <c r="BR9" s="40"/>
-      <c r="BS9" s="40"/>
-      <c r="BT9" s="40"/>
-      <c r="BU9" s="40"/>
-      <c r="BV9" s="40"/>
-      <c r="BW9" s="40"/>
-      <c r="BX9" s="40"/>
-      <c r="BY9" s="40"/>
-      <c r="BZ9" s="40"/>
-      <c r="CA9" s="40"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36"/>
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36"/>
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36"/>
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36"/>
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36"/>
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="35"/>
     </row>
     <row r="10" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="11"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3212,26 +3604,26 @@
       <c r="BY10" s="4"/>
       <c r="BZ10" s="4"/>
       <c r="CA10" s="4"/>
-      <c r="CB10" s="23" t="s">
+      <c r="CB10" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="CC10" s="41" t="s">
+      <c r="CC10" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="CD10" s="42"/>
-      <c r="CE10" s="43"/>
+      <c r="CD10" s="25"/>
+      <c r="CE10" s="26"/>
     </row>
     <row r="11" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="11"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -3305,22 +3697,22 @@
       <c r="BY11" s="4"/>
       <c r="BZ11" s="4"/>
       <c r="CA11" s="4"/>
-      <c r="CB11" s="24"/>
-      <c r="CC11" s="44"/>
-      <c r="CD11" s="45"/>
-      <c r="CE11" s="46"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="28"/>
+      <c r="CE11" s="29"/>
     </row>
     <row r="12" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="11"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -3394,22 +3786,22 @@
       <c r="BY12" s="4"/>
       <c r="BZ12" s="4"/>
       <c r="CA12" s="4"/>
-      <c r="CB12" s="24"/>
-      <c r="CC12" s="44"/>
-      <c r="CD12" s="45"/>
-      <c r="CE12" s="46"/>
+      <c r="CB12" s="47"/>
+      <c r="CC12" s="27"/>
+      <c r="CD12" s="28"/>
+      <c r="CE12" s="29"/>
     </row>
     <row r="13" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="11"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -3483,22 +3875,22 @@
       <c r="BY13" s="4"/>
       <c r="BZ13" s="4"/>
       <c r="CA13" s="4"/>
-      <c r="CB13" s="25"/>
-      <c r="CC13" s="44"/>
-      <c r="CD13" s="45"/>
-      <c r="CE13" s="46"/>
+      <c r="CB13" s="48"/>
+      <c r="CC13" s="27"/>
+      <c r="CD13" s="28"/>
+      <c r="CE13" s="29"/>
     </row>
     <row r="14" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="11"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -3575,21 +3967,21 @@
       <c r="CB14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="CC14" s="44"/>
-      <c r="CD14" s="45"/>
-      <c r="CE14" s="46"/>
+      <c r="CC14" s="27"/>
+      <c r="CD14" s="28"/>
+      <c r="CE14" s="29"/>
     </row>
     <row r="15" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="11"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3666,21 +4058,21 @@
       <c r="CB15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="CC15" s="47"/>
-      <c r="CD15" s="48"/>
-      <c r="CE15" s="49"/>
+      <c r="CC15" s="30"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="32"/>
     </row>
     <row r="16" spans="1:104" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -3754,26 +4146,26 @@
       <c r="BY16" s="4"/>
       <c r="BZ16" s="4"/>
       <c r="CA16" s="4"/>
-      <c r="CB16" s="23" t="s">
+      <c r="CB16" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="CC16" s="41" t="s">
+      <c r="CC16" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="CD16" s="42"/>
-      <c r="CE16" s="43"/>
+      <c r="CD16" s="25"/>
+      <c r="CE16" s="26"/>
     </row>
     <row r="17" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -3847,22 +4239,22 @@
       <c r="BY17" s="4"/>
       <c r="BZ17" s="4"/>
       <c r="CA17" s="4"/>
-      <c r="CB17" s="24"/>
-      <c r="CC17" s="44"/>
-      <c r="CD17" s="45"/>
-      <c r="CE17" s="46"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="27"/>
+      <c r="CD17" s="28"/>
+      <c r="CE17" s="29"/>
     </row>
     <row r="18" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -3936,22 +4328,22 @@
       <c r="BY18" s="4"/>
       <c r="BZ18" s="4"/>
       <c r="CA18" s="4"/>
-      <c r="CB18" s="24"/>
-      <c r="CC18" s="44"/>
-      <c r="CD18" s="45"/>
-      <c r="CE18" s="46"/>
+      <c r="CB18" s="47"/>
+      <c r="CC18" s="27"/>
+      <c r="CD18" s="28"/>
+      <c r="CE18" s="29"/>
     </row>
     <row r="19" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -4025,22 +4417,22 @@
       <c r="BY19" s="4"/>
       <c r="BZ19" s="4"/>
       <c r="CA19" s="4"/>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="47"/>
-      <c r="CD19" s="48"/>
-      <c r="CE19" s="49"/>
+      <c r="CB19" s="48"/>
+      <c r="CC19" s="30"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="32"/>
     </row>
     <row r="20" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -4114,26 +4506,26 @@
       <c r="BY20" s="4"/>
       <c r="BZ20" s="4"/>
       <c r="CA20" s="4"/>
-      <c r="CB20" s="23" t="s">
+      <c r="CB20" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="CC20" s="41" t="s">
+      <c r="CC20" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="CD20" s="42"/>
-      <c r="CE20" s="43"/>
+      <c r="CD20" s="25"/>
+      <c r="CE20" s="26"/>
     </row>
     <row r="21" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -4207,22 +4599,22 @@
       <c r="BY21" s="4"/>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
-      <c r="CB21" s="24"/>
-      <c r="CC21" s="44"/>
-      <c r="CD21" s="45"/>
-      <c r="CE21" s="46"/>
+      <c r="CB21" s="47"/>
+      <c r="CC21" s="27"/>
+      <c r="CD21" s="28"/>
+      <c r="CE21" s="29"/>
     </row>
     <row r="22" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -4296,22 +4688,22 @@
       <c r="BY22" s="4"/>
       <c r="BZ22" s="4"/>
       <c r="CA22" s="4"/>
-      <c r="CB22" s="25"/>
-      <c r="CC22" s="47"/>
-      <c r="CD22" s="48"/>
-      <c r="CE22" s="49"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="30"/>
+      <c r="CD22" s="31"/>
+      <c r="CE22" s="32"/>
     </row>
     <row r="23" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4385,26 +4777,26 @@
       <c r="BY23" s="5"/>
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
-      <c r="CB23" s="23" t="s">
+      <c r="CB23" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="CC23" s="41" t="s">
+      <c r="CC23" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="43"/>
+      <c r="CD23" s="25"/>
+      <c r="CE23" s="26"/>
     </row>
     <row r="24" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -4478,22 +4870,22 @@
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
-      <c r="CB24" s="24"/>
-      <c r="CC24" s="44"/>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="46"/>
+      <c r="CB24" s="47"/>
+      <c r="CC24" s="27"/>
+      <c r="CD24" s="28"/>
+      <c r="CE24" s="29"/>
     </row>
     <row r="25" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -4567,22 +4959,22 @@
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
-      <c r="CB25" s="24"/>
-      <c r="CC25" s="44"/>
-      <c r="CD25" s="45"/>
-      <c r="CE25" s="46"/>
+      <c r="CB25" s="47"/>
+      <c r="CC25" s="27"/>
+      <c r="CD25" s="28"/>
+      <c r="CE25" s="29"/>
     </row>
     <row r="26" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -4656,22 +5048,22 @@
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
-      <c r="CB26" s="24"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="45"/>
-      <c r="CE26" s="46"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="27"/>
+      <c r="CD26" s="28"/>
+      <c r="CE26" s="29"/>
     </row>
     <row r="27" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -4745,22 +5137,22 @@
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
-      <c r="CB27" s="24"/>
-      <c r="CC27" s="44"/>
-      <c r="CD27" s="45"/>
-      <c r="CE27" s="46"/>
+      <c r="CB27" s="47"/>
+      <c r="CC27" s="27"/>
+      <c r="CD27" s="28"/>
+      <c r="CE27" s="29"/>
     </row>
     <row r="28" spans="1:83" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -4834,29 +5226,103 @@
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
-      <c r="CB28" s="25"/>
-      <c r="CC28" s="47"/>
-      <c r="CD28" s="48"/>
-      <c r="CE28" s="49"/>
+      <c r="CB28" s="48"/>
+      <c r="CC28" s="30"/>
+      <c r="CD28" s="31"/>
+      <c r="CE28" s="32"/>
     </row>
     <row r="31" spans="1:83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="CC10:CE15"/>
-    <mergeCell ref="CC16:CE19"/>
-    <mergeCell ref="CB8:CB9"/>
-    <mergeCell ref="BJ7:CE7"/>
-    <mergeCell ref="CC8:CE9"/>
-    <mergeCell ref="BT8:BT9"/>
-    <mergeCell ref="BU8:BU9"/>
-    <mergeCell ref="BV8:BV9"/>
-    <mergeCell ref="BW8:BW9"/>
-    <mergeCell ref="BX8:BX9"/>
-    <mergeCell ref="BY8:BY9"/>
-    <mergeCell ref="BZ8:BZ9"/>
-    <mergeCell ref="CA8:CA9"/>
+    <mergeCell ref="CB20:CB22"/>
+    <mergeCell ref="CB16:CB19"/>
+    <mergeCell ref="CB10:CB13"/>
+    <mergeCell ref="CB23:CB28"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="T3:AB3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:AB5"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="CC20:CE22"/>
+    <mergeCell ref="CC23:CE28"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
     <mergeCell ref="H7:T7"/>
     <mergeCell ref="U7:AP7"/>
     <mergeCell ref="AQ7:BI7"/>
@@ -4881,271 +5347,2593 @@
     <mergeCell ref="BA8:BA9"/>
     <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="CC20:CE22"/>
-    <mergeCell ref="CC23:CE28"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:AB5"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="CB20:CB22"/>
-    <mergeCell ref="CB16:CB19"/>
-    <mergeCell ref="CB10:CB13"/>
-    <mergeCell ref="CB23:CB28"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="T3:AB3"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="CC10:CE15"/>
+    <mergeCell ref="CC16:CE19"/>
+    <mergeCell ref="CB8:CB9"/>
+    <mergeCell ref="BJ7:CE7"/>
+    <mergeCell ref="CC8:CE9"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BU8:BU9"/>
+    <mergeCell ref="BV8:BV9"/>
+    <mergeCell ref="BW8:BW9"/>
+    <mergeCell ref="BX8:BX9"/>
+    <mergeCell ref="BY8:BY9"/>
+    <mergeCell ref="BZ8:BZ9"/>
+    <mergeCell ref="CA8:CA9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H8:L9">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="69" priority="39">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:Q9">
-    <cfRule type="expression" dxfId="33" priority="40">
+    <cfRule type="expression" dxfId="68" priority="40">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:V9">
-    <cfRule type="expression" dxfId="32" priority="41">
+    <cfRule type="expression" dxfId="67" priority="41">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:Z8">
-    <cfRule type="expression" dxfId="31" priority="42">
+    <cfRule type="expression" dxfId="66" priority="42">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:Z9">
-    <cfRule type="expression" dxfId="30" priority="43">
+    <cfRule type="expression" dxfId="65" priority="43">
       <formula>OR(WEEKDAY(W31)=7,WEEKDAY(W31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AE8">
-    <cfRule type="expression" dxfId="29" priority="44">
+    <cfRule type="expression" dxfId="64" priority="44">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AE9">
-    <cfRule type="expression" dxfId="28" priority="45">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>OR(WEEKDAY(AC31)=7,WEEKDAY(AC31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AJ8">
-    <cfRule type="expression" dxfId="27" priority="46">
+    <cfRule type="expression" dxfId="62" priority="46">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9:AJ9">
-    <cfRule type="expression" dxfId="26" priority="47">
+    <cfRule type="expression" dxfId="61" priority="47">
       <formula>OR(WEEKDAY(AJ31)=7,WEEKDAY(AJ31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AP8">
-    <cfRule type="expression" dxfId="25" priority="48">
+    <cfRule type="expression" dxfId="60" priority="48">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AP9">
-    <cfRule type="expression" dxfId="24" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>OR(WEEKDAY(AP31)=7,WEEKDAY(AP31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AS8">
-    <cfRule type="expression" dxfId="23" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AS9">
-    <cfRule type="expression" dxfId="22" priority="51">
+    <cfRule type="expression" dxfId="57" priority="51">
       <formula>OR(WEEKDAY(BA31)=7,WEEKDAY(BA31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AX8">
-    <cfRule type="expression" dxfId="21" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9:AX9">
-    <cfRule type="expression" dxfId="20" priority="53">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>OR(WEEKDAY(BE31)=7,WEEKDAY(BE31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:BC8">
-    <cfRule type="expression" dxfId="19" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY9:BC9">
-    <cfRule type="expression" dxfId="18" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>OR(WEEKDAY(BL31)=7,WEEKDAY(BL31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BH8">
-    <cfRule type="expression" dxfId="17" priority="56">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD9:BF9">
-    <cfRule type="expression" dxfId="16" priority="57">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>OR(WEEKDAY(BS31)=7,WEEKDAY(BS31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BM8">
-    <cfRule type="expression" dxfId="15" priority="58">
+    <cfRule type="expression" dxfId="50" priority="58">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI9:BJ9">
-    <cfRule type="expression" dxfId="14" priority="59">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>OR(WEEKDAY(BZ31)=7,WEEKDAY(BZ31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS8:BV8">
-    <cfRule type="expression" dxfId="13" priority="60">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS9:BV9">
-    <cfRule type="expression" dxfId="12" priority="61">
+    <cfRule type="expression" dxfId="47" priority="61">
       <formula>OR(WEEKDAY(CL31)=7,WEEKDAY(CL31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN8:BR8">
-    <cfRule type="expression" dxfId="11" priority="62">
+    <cfRule type="expression" dxfId="46" priority="62">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN9:BR9">
-    <cfRule type="expression" dxfId="10" priority="63">
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>OR(WEEKDAY(CD31)=7,WEEKDAY(CD31)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG9:BH9">
-    <cfRule type="expression" dxfId="9" priority="65">
+    <cfRule type="expression" dxfId="44" priority="65">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW8">
+    <cfRule type="expression" dxfId="43" priority="7">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW9">
+    <cfRule type="expression" dxfId="42" priority="8">
+      <formula>OR(WEEKDAY(CP31)=7,WEEKDAY(CP31)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX8:BY8">
+    <cfRule type="expression" dxfId="41" priority="5">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX9:BY9">
+    <cfRule type="expression" dxfId="40" priority="6">
+      <formula>OR(WEEKDAY(CQ31)=7,WEEKDAY(CQ31)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ8">
+    <cfRule type="expression" dxfId="39" priority="3">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ9">
+    <cfRule type="expression" dxfId="38" priority="4">
+      <formula>OR(WEEKDAY(CS31)=7,WEEKDAY(CS31)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA8">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA9">
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>OR(WEEKDAY(CT31)=7,WEEKDAY(CT31)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK9:BM9">
+    <cfRule type="expression" dxfId="35" priority="67">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CC22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="77" width="5.875" customWidth="1"/>
+    <col min="78" max="78" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+    </row>
+    <row r="2" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB2" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP2" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+    </row>
+    <row r="3" spans="1:81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="33"/>
+      <c r="CA3" s="35"/>
+      <c r="CB3" s="35"/>
+      <c r="CC3" s="35"/>
+    </row>
+    <row r="4" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA4" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="26"/>
+    </row>
+    <row r="5" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="27"/>
+      <c r="CB5" s="28"/>
+      <c r="CC5" s="29"/>
+    </row>
+    <row r="6" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="47"/>
+      <c r="CA6" s="27"/>
+      <c r="CB6" s="28"/>
+      <c r="CC6" s="29"/>
+    </row>
+    <row r="7" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="48"/>
+      <c r="CA7" s="27"/>
+      <c r="CB7" s="28"/>
+      <c r="CC7" s="29"/>
+    </row>
+    <row r="8" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA8" s="27"/>
+      <c r="CB8" s="28"/>
+      <c r="CC8" s="29"/>
+    </row>
+    <row r="9" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="4"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="4"/>
+      <c r="BV9" s="4"/>
+      <c r="BW9" s="4"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="32"/>
+    </row>
+    <row r="10" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA10" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="26"/>
+    </row>
+    <row r="11" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="4"/>
+      <c r="BV11" s="4"/>
+      <c r="BW11" s="4"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="27"/>
+      <c r="CB11" s="28"/>
+      <c r="CC11" s="29"/>
+    </row>
+    <row r="12" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="47"/>
+      <c r="CA12" s="27"/>
+      <c r="CB12" s="28"/>
+      <c r="CC12" s="29"/>
+    </row>
+    <row r="13" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="48"/>
+      <c r="CA13" s="30"/>
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="32"/>
+    </row>
+    <row r="14" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA14" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB14" s="25"/>
+      <c r="CC14" s="26"/>
+    </row>
+    <row r="15" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="47"/>
+      <c r="CA15" s="27"/>
+      <c r="CB15" s="28"/>
+      <c r="CC15" s="29"/>
+    </row>
+    <row r="16" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="48"/>
+      <c r="CA16" s="30"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="32"/>
+    </row>
+    <row r="17" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB17" s="25"/>
+      <c r="CC17" s="26"/>
+    </row>
+    <row r="18" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="47"/>
+      <c r="CA18" s="27"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="29"/>
+    </row>
+    <row r="19" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="5"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+      <c r="BV19" s="5"/>
+      <c r="BW19" s="5"/>
+      <c r="BX19" s="5"/>
+      <c r="BY19" s="5"/>
+      <c r="BZ19" s="47"/>
+      <c r="CA19" s="27"/>
+      <c r="CB19" s="28"/>
+      <c r="CC19" s="29"/>
+    </row>
+    <row r="20" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="5"/>
+      <c r="BZ20" s="47"/>
+      <c r="CA20" s="27"/>
+      <c r="CB20" s="28"/>
+      <c r="CC20" s="29"/>
+    </row>
+    <row r="21" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="47"/>
+      <c r="CA21" s="27"/>
+      <c r="CB21" s="28"/>
+      <c r="CC21" s="29"/>
+    </row>
+    <row r="22" spans="1:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="48"/>
+      <c r="CA22" s="30"/>
+      <c r="CB22" s="31"/>
+      <c r="CC22" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="BZ14:BZ16"/>
+    <mergeCell ref="CA14:CC16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="BZ17:BZ22"/>
+    <mergeCell ref="CA17:CC22"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="BZ10:BZ13"/>
+    <mergeCell ref="CA10:CC13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CC3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="BZ4:BZ7"/>
+    <mergeCell ref="CA4:CC9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="BH1:CC1"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="S1:AN1"/>
+    <mergeCell ref="AO1:BG1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="F2:J3">
+    <cfRule type="expression" dxfId="34" priority="9">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:O3">
+    <cfRule type="expression" dxfId="33" priority="10">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T3">
+    <cfRule type="expression" dxfId="32" priority="11">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:X2">
+    <cfRule type="expression" dxfId="31" priority="12">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:X3">
+    <cfRule type="expression" dxfId="30" priority="13">
+      <formula>OR(WEEKDAY(U25)=7,WEEKDAY(U25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:AC2">
+    <cfRule type="expression" dxfId="29" priority="14">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:AC3">
+    <cfRule type="expression" dxfId="28" priority="15">
+      <formula>OR(WEEKDAY(AA25)=7,WEEKDAY(AA25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AH2">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AH3">
+    <cfRule type="expression" dxfId="26" priority="17">
+      <formula>OR(WEEKDAY(AH25)=7,WEEKDAY(AH25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AN2">
+    <cfRule type="expression" dxfId="25" priority="18">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AN3">
+    <cfRule type="expression" dxfId="24" priority="19">
+      <formula>OR(WEEKDAY(AN25)=7,WEEKDAY(AN25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AQ2">
+    <cfRule type="expression" dxfId="23" priority="20">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AQ3">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>OR(WEEKDAY(AY25)=7,WEEKDAY(AY25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AV2">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR3:AV3">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>OR(WEEKDAY(BC25)=7,WEEKDAY(BC25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2:BA2">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW3:BA3">
+    <cfRule type="expression" dxfId="18" priority="25">
+      <formula>OR(WEEKDAY(BJ25)=7,WEEKDAY(BJ25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB2:BF2">
+    <cfRule type="expression" dxfId="17" priority="26">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB3:BD3">
+    <cfRule type="expression" dxfId="16" priority="27">
+      <formula>OR(WEEKDAY(BQ25)=7,WEEKDAY(BQ25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG2:BK2">
+    <cfRule type="expression" dxfId="15" priority="28">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG3:BH3">
+    <cfRule type="expression" dxfId="14" priority="29">
+      <formula>OR(WEEKDAY(BX25)=7,WEEKDAY(BX25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ2:BT2">
+    <cfRule type="expression" dxfId="13" priority="30">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ3:BT3">
+    <cfRule type="expression" dxfId="12" priority="31">
+      <formula>OR(WEEKDAY(CJ25)=7,WEEKDAY(CJ25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL2:BP2">
+    <cfRule type="expression" dxfId="11" priority="32">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL3:BP3">
+    <cfRule type="expression" dxfId="10" priority="33">
+      <formula>OR(WEEKDAY(CB25)=7,WEEKDAY(CB25)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE3:BF3">
+    <cfRule type="expression" dxfId="9" priority="34">
+      <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU2">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW9">
+  <conditionalFormatting sqref="BU3">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>OR(WEEKDAY(CP31)=7,WEEKDAY(CP31)=1)</formula>
+      <formula>OR(WEEKDAY(CN25)=7,WEEKDAY(CN25)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX8:BY8">
+  <conditionalFormatting sqref="BV2:BW2">
     <cfRule type="expression" dxfId="6" priority="5">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX9:BY9">
+  <conditionalFormatting sqref="BV3:BW3">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>OR(WEEKDAY(CQ31)=7,WEEKDAY(CQ31)=1)</formula>
+      <formula>OR(WEEKDAY(CO25)=7,WEEKDAY(CO25)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ8">
+  <conditionalFormatting sqref="BX2">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ9">
+  <conditionalFormatting sqref="BX3">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>OR(WEEKDAY(CS31)=7,WEEKDAY(CS31)=1)</formula>
+      <formula>OR(WEEKDAY(CQ25)=7,WEEKDAY(CQ25)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA8">
+  <conditionalFormatting sqref="BY2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA9">
+  <conditionalFormatting sqref="BY3">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>OR(WEEKDAY(CT31)=7,WEEKDAY(CT31)=1)</formula>
+      <formula>OR(WEEKDAY(CR25)=7,WEEKDAY(CR25)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BM9">
-    <cfRule type="expression" dxfId="0" priority="67">
+  <conditionalFormatting sqref="BI3:BK3">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>OR(WEEKDAY(#REF!)=7,WEEKDAY(#REF!)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>